--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -937,16 +934,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -955,406 +950,406 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1363,7 +1358,7 @@
     <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1373,13 +1368,13 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1636,7 +1631,6 @@
     <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi"/>
     <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/"/>
     <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/"/>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B31" r:id="rId25"/>
     <hyperlink ref="B33" r:id="rId26"/>
     <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>FMI</t>
   </si>
   <si>
-    <t>Octobre 2021 (octobre 2019 pour certains indicateurs)</t>
+    <t>Avril 2022 (octobre 2019 pour certains indicateurs)</t>
   </si>
   <si>
     <t>https://www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
@@ -219,7 +219,7 @@
     <t>indicateurs de développement de la banque mondiale</t>
   </si>
   <si>
-    <t>Mise à jour le 15/09/2021</t>
+    <t>Mise à jour le 22/04/2022</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -1151,7 +1151,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>54</v>

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -216,9 +216,6 @@
     <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
   </si>
   <si>
-    <t>indicateurs de développement de la banque mondiale</t>
-  </si>
-  <si>
     <t>Mise à jour le 22/04/2022</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Indicateurs de développement de la Banque mondiale</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1205,151 +1207,151 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1358,7 +1360,7 @@
     <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1368,13 +1370,13 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">

--- a/DDAf_2022_Tableau_annexe_sources.xlsx
+++ b/DDAf_2022_Tableau_annexe_sources.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -216,6 +219,9 @@
     <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
   </si>
   <si>
+    <t>Indicateurs de développement de la Banque mondiale</t>
+  </si>
+  <si>
     <t>Mise à jour le 22/04/2022</t>
   </si>
   <si>
@@ -312,16 +318,13 @@
     <t>https://population.un.org/wup/</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Indicateurs de développement de la Banque mondiale</t>
   </si>
 </sst>
 </file>
@@ -645,13 +648,92 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Output files"/>
+      <sheetName val="Refperiod (Statworks)"/>
+      <sheetName val="Table names (Statworks)"/>
+      <sheetName val="FDI Descriptions"/>
+      <sheetName val="Var descriptions (Statworks)"/>
+      <sheetName val="Indcode conversion"/>
+      <sheetName val="github, bit.ly"/>
+      <sheetName val="Code conversion"/>
+      <sheetName val="Indicators (EN raw data)"/>
+      <sheetName val="Indicateurs (FR raw data)"/>
+      <sheetName val="Indicators trad"/>
+      <sheetName val="IndCodes (Statworks)"/>
+      <sheetName val="AfDD_DDAf_2022_TabInds (CSV)"/>
+      <sheetName val="Variable titles trad"/>
+      <sheetName val="Check IndCodes (EN)"/>
+      <sheetName val="CntryPays (Statworks)"/>
+      <sheetName val="CYC variables"/>
+      <sheetName val="AfDD_DDAf_2022_CntryPays (CSV)"/>
+      <sheetName val="Country groupings trad"/>
+      <sheetName val="Sources (public)"/>
+      <sheetName val="Source trad"/>
+      <sheetName val="Indicators tab"/>
+      <sheetName val="Extracted column headings"/>
+      <sheetName val="Combine extracted &amp; Indicators"/>
+      <sheetName val="From To SW &amp; AfDD_DDAf"/>
+      <sheetName val="IndCode Changes"/>
+      <sheetName val="Top exports by country and year"/>
+      <sheetName val="Sources (private)"/>
+      <sheetName val="WebSites"/>
+      <sheetName val="Names, indicators, metadata, 20"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" name="Sources" dataDxfId="3">
+      <calculatedColumnFormula>'[1]Sources (public)'!B35</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2">
+      <calculatedColumnFormula>'[1]Sources (public)'!C35</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2">
+      <calculatedColumnFormula>'[1]Sources (public)'!D35</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="URL" dataDxfId="0" dataCellStyle="Hyperlink">
+      <calculatedColumnFormula>'[1]Sources (public)'!E35</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -922,9 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1207,151 +1287,151 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1360,7 +1440,7 @@
     <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1370,13 +1450,13 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1633,7 +1713,7 @@
     <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi"/>
     <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/"/>
     <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/"/>
-    <hyperlink ref="B31" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId25" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B33" r:id="rId26"/>
     <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
   </hyperlinks>
